--- a/docs/odh/shr-core-Qualification-model.xlsx
+++ b/docs/odh/shr-core-Qualification-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="57">
   <si>
     <t>Path</t>
   </si>
@@ -140,7 +140,7 @@
     <t>shr-core-Qualification-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -173,7 +173,7 @@
     <t>shr-core-Qualification-model.effectiveTimePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -187,15 +187,11 @@
     <t>shr-core-Qualification-model.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model]]}
 </t>
   </si>
   <si>
     <t>An organization who issues a qualification, identifier, or license.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1561598
-</t>
   </si>
 </sst>
 </file>
@@ -344,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -948,7 +944,7 @@
         <v>36</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>36</v>
